--- a/Boosting.xlsx
+++ b/Boosting.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\Machine Learning\Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54AAC4-ECD7-45F1-8DFA-7CA115D6A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A250FD-9136-44BF-BCF8-EE440DF92208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="554" activeTab="1" xr2:uid="{8A355237-44A4-4854-B980-8DCD4E5BA8EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="554" activeTab="2" xr2:uid="{8A355237-44A4-4854-B980-8DCD4E5BA8EC}"/>
   </bookViews>
   <sheets>
     <sheet name="AdaBoost" sheetId="34" r:id="rId1"/>
     <sheet name="Gradient Boosting" sheetId="35" r:id="rId2"/>
+    <sheet name="Xgboost" sheetId="36" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>=</t>
   </si>
@@ -211,6 +212,9 @@
   </si>
   <si>
     <t>out = (4.8 +0.1x(-1.8) + 0.1x(-1.62))</t>
+  </si>
+  <si>
+    <t>lambda = 0 for now</t>
   </si>
 </sst>
 </file>
@@ -375,6 +379,627 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510541</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD9FF96-45D2-02D3-3AEA-98C3DD1E0D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6606541" y="594360"/>
+          <a:ext cx="2842260" cy="1392626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43215A7-17D3-5DD9-14E6-678EC22BE18B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="146862"/>
+          <a:ext cx="5241294" cy="3038298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69026</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046F5C03-F995-283A-0051-73E08788BA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="3484959"/>
+          <a:ext cx="2233106" cy="995800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442409</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7B1C98-F9CC-1295-7C04-B4C5562317C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3642360" y="3383280"/>
+          <a:ext cx="2896049" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>382273</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27BAC7F-447C-5616-E36C-2831E8A33EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="4930671"/>
+          <a:ext cx="4992373" cy="2765529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>480699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5E3EC6-16A2-5F91-A39F-1A72B0CD4B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9768840" y="365760"/>
+          <a:ext cx="3513459" cy="2312059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244171</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABF189F-D5C5-0C43-5AF9-94E6CFD40D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="7696200"/>
+          <a:ext cx="3817951" cy="571550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608505</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112338</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718EA270-0067-5099-B0F7-1DD643322D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5485305" y="4930141"/>
+          <a:ext cx="4990233" cy="2796540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419415</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7F232C-927C-B58E-8AB5-9073D18D43BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5928360" y="7741920"/>
+          <a:ext cx="3635055" cy="723963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256476</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>404327</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A03EDC-8CD0-432C-E14A-B019A85F29B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11229276" y="4983480"/>
+          <a:ext cx="3195851" cy="2499725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>179988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>99529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CB4657-0E7B-06E6-CBA3-9A7CE8748E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="8958228"/>
+          <a:ext cx="4838700" cy="2662741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>332384</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>434769</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>53695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD26CDA-7136-CD05-1C7F-9341E5661D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5209184" y="8930640"/>
+          <a:ext cx="2540785" cy="2095855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381338</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>15290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3816D3DE-5130-49D1-1D22-87A960D36B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11109960" y="7490460"/>
+          <a:ext cx="3901778" cy="571550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>366527</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>129967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CD0ED6-D14B-CF3B-9FF9-5263399D7855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8481060" y="8889668"/>
+          <a:ext cx="5296667" cy="2944619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +1302,7 @@
   <dimension ref="A2:AE21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1152,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84EAB7B-AF2C-46F8-A197-DFB5598FBF42}">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,4 +2082,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C171B580-0341-419A-935B-9DBCFBAD0015}">
+  <dimension ref="L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="14" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Boosting.xlsx
+++ b/Boosting.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\Machine Learning\Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A250FD-9136-44BF-BCF8-EE440DF92208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD3C14-6862-4951-AC7E-B4BEA161CE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="554" activeTab="2" xr2:uid="{8A355237-44A4-4854-B980-8DCD4E5BA8EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="554" activeTab="3" xr2:uid="{8A355237-44A4-4854-B980-8DCD4E5BA8EC}"/>
   </bookViews>
   <sheets>
     <sheet name="AdaBoost" sheetId="34" r:id="rId1"/>
     <sheet name="Gradient Boosting" sheetId="35" r:id="rId2"/>
     <sheet name="Xgboost" sheetId="36" r:id="rId3"/>
+    <sheet name="Error Analysis" sheetId="37" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>=</t>
   </si>
@@ -216,12 +217,87 @@
   <si>
     <t>lambda = 0 for now</t>
   </si>
+  <si>
+    <t>preds</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TP/ (TP+FP)</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>TP/ (TP+FN)</t>
+  </si>
+  <si>
+    <t>prec for 1</t>
+  </si>
+  <si>
+    <t>TN/(TN+FN)</t>
+  </si>
+  <si>
+    <t>rec for 1</t>
+  </si>
+  <si>
+    <t>TN/(TN+FP)</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; for each threshold from (0,1) step of 0.01or any other calc labels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for each of these labesl calc </t>
+  </si>
+  <si>
+    <t>considering below</t>
+  </si>
+  <si>
+    <t>FP/(FP+TN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall for </t>
+  </si>
+  <si>
+    <t>TP/(TP+FN)</t>
+  </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>Of all the PREDICTED 1's how many are correct</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>Of all the ACTUAL 1's how many are correct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +362,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFA5FF90"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,6 +478,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,6 +1124,109 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>516</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04118101-0E91-4BE9-E2FA-D5C164391064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5021580" y="1752600"/>
+          <a:ext cx="5951736" cy="784928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>122446</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88DF97D-9DD2-7F8E-5492-8D9094B46802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5021580" y="632460"/>
+          <a:ext cx="6073666" cy="769687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2088,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C171B580-0341-419A-935B-9DBCFBAD0015}">
   <dimension ref="L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
@@ -2103,4 +2328,298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE9F448-F820-4002-A564-60C6FF39E1DF}">
+  <dimension ref="A1:W26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1353</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>191</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>191</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>124</v>
+      </c>
+      <c r="D11">
+        <v>1353</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <f>C10/(C10+C11)</f>
+        <v>0.6063492063492063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <f>C10/(C10+D10)</f>
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1353</v>
+      </c>
+      <c r="T18" s="19">
+        <v>124</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18">
+        <v>9</v>
+      </c>
+      <c r="T19" s="15">
+        <v>191</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>